--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrielh/Documents/GitHub/Negative-Regulator-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FDCF4-8626-4643-923B-8E0635925679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B202B-170E-F644-A726-EF4B6B1A89A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{7A26C5E7-96D1-48BE-832A-0113EABFEB89}"/>
+    <workbookView xWindow="30900" yWindow="1580" windowWidth="25600" windowHeight="17240" xr2:uid="{7A26C5E7-96D1-48BE-832A-0113EABFEB89}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -397,23 +397,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,12 +413,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -436,23 +440,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE42B9A-A392-49C6-A5AC-AF7C2A16DDF5}">
   <dimension ref="A1:S633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S35" sqref="J35:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -825,41 +824,41 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="12">
+      <c r="I3" s="4"/>
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>2</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="K3" s="9">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9">
         <v>4</v>
       </c>
-      <c r="M3" s="12">
-        <v>6</v>
-      </c>
-      <c r="N3" s="12">
-        <v>8</v>
-      </c>
-      <c r="O3" s="12">
-        <v>10</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="M3" s="9">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
+        <v>8</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="9">
         <v>12</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="9">
         <v>24</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="9">
         <v>36</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="10">
         <v>48</v>
       </c>
     </row>
@@ -879,13 +878,13 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="G4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1">
@@ -945,48 +944,48 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="20">
         <f>J4+15</f>
         <v>2.9779801842598239</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <f t="shared" ref="K5:S5" si="0">K4+15</f>
         <v>2.6335220490545872</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>2.4999994733099911</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>2.067380506989247</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>2.0183457089697328</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>2.0965063806130733</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>0.73531157853508411</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>0.13903884339491412</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
         <v>0.54118231974945985</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="5">
         <f t="shared" si="0"/>
         <v>6.530843799009034E-2</v>
       </c>
@@ -1007,48 +1006,48 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="21">
         <f>STDEV(cac_cac_0)</f>
         <v>1.1086132989231305</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6">
         <f>STDEV(cac_cac_2)</f>
         <v>1.2313045506882363</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6">
         <f>STDEV(cac_cac_4)</f>
         <v>0.9720798126053013</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6">
         <f>STDEV(cac_cac_6)</f>
         <v>0.72742343009812838</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6">
         <f>STDEV(cac_cac_8)</f>
         <v>0.59716668152105579</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6">
         <f>STDEV(cac_cac_10)</f>
         <v>0.79018369212886419</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6">
         <f>STDEV(cac_cac_12)</f>
         <v>1.3862065035026603</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6">
         <f>STDEV(cac_cac_24)</f>
         <v>0.58809130241498697</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6">
         <f>STDEV(cac_cac_36)</f>
         <v>0.64995403454491285</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <f>STDEV(cac_cac_48)</f>
         <v>0.63035219824443622</v>
       </c>
@@ -1069,21 +1068,21 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1101,50 +1100,50 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="21">
         <f>AVERAGE(cac_mal_0)</f>
         <v>-11.465080270010461</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8">
         <f>AVERAGE(cac_mal_2)</f>
         <v>-10.681425265428194</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8">
         <f>AVERAGE(cac_mal_4)</f>
         <v>-11.486238560458705</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8">
         <f>AVERAGE(cac_mal_6)</f>
         <v>-12.264579049263082</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <f>AVERAGE(cac_mal_8)</f>
         <v>-12.280996938652825</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8">
         <f>AVERAGE(cac_mal_10)</f>
         <v>-12.884586440175392</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8">
         <f>AVERAGE(cac_mal_12)</f>
         <v>-13.419346004073978</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8">
         <f>AVERAGE(cac_mal_24)</f>
         <v>-13.699151060434701</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8">
         <f>AVERAGE(cac_mal_36)</f>
         <v>-14.028385226772807</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <f>AVERAGE(cac_mal_48)</f>
         <v>-14.174582159331919</v>
       </c>
@@ -1165,48 +1164,48 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="22" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="20">
         <f>J8+15</f>
         <v>3.5349197299895394</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <f t="shared" ref="K9:S9" si="1">K8+15</f>
         <v>4.318574734571806</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>3.5137614395412946</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>2.735420950736918</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>2.7190030613471752</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
         <v>2.1154135598246082</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>1.5806539959260224</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="11">
         <f t="shared" si="1"/>
         <v>1.3008489395652987</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="11">
         <f t="shared" si="1"/>
         <v>0.97161477322719314</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <f t="shared" si="1"/>
         <v>0.82541784066808077</v>
       </c>
@@ -1227,48 +1226,48 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="23" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="21">
         <f>STDEV(cac_mal_0)</f>
         <v>1.207998349080758</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10">
         <f>STDEV(cac_mal_2)</f>
         <v>0.7173862312973347</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10">
         <f>STDEV(cac_mal_4)</f>
         <v>0.87578791654405319</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10">
         <f>STDEV(cac_mal_6)</f>
         <v>0.64082251887522479</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10">
         <f>STDEV(cac_mal_8)</f>
         <v>1.3615881464131765</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10">
         <f>STDEV(cac_mal_10)</f>
         <v>0.67712773310900676</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10">
         <f>STDEV(cac_mal_12)</f>
         <v>0.7900551270217252</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10">
         <f>STDEV(cac_mal_24)</f>
         <v>0.49377334555584129</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10">
         <f>STDEV(cac_mal_36)</f>
         <v>0.83223330133303008</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <f>STDEV(cac_mal_48)</f>
         <v>0.51283236922250475</v>
       </c>
@@ -1289,21 +1288,21 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1321,13 +1320,13 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="G12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="1">
@@ -1387,48 +1386,48 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="20">
         <f>J12+21</f>
         <v>8.2354341130724116</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <f t="shared" ref="K13:S13" si="2">K12+21</f>
         <v>6.2193058315737009</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="11">
         <f t="shared" si="2"/>
         <v>7.2557229706611786</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="11">
         <f t="shared" si="2"/>
         <v>5.5736319789057323</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
         <v>7.440340280980811</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="11">
         <f t="shared" si="2"/>
         <v>5.2786447887220174</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <f t="shared" si="2"/>
         <v>6.1134200842505653</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="11">
         <f t="shared" si="2"/>
         <v>5.8422038131562175</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="11">
         <f t="shared" si="2"/>
         <v>6.4098086678094202</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="5">
         <f t="shared" si="2"/>
         <v>5.2129246247581147</v>
       </c>
@@ -1449,48 +1448,48 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="21">
         <f>STDEV(cec2_cac_0)</f>
         <v>1.4766882767545895</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14">
         <f>STDEV(cec2_cac_2)</f>
         <v>1.5629090864010222</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14">
         <f>STDEV(cec2_cac_4)</f>
         <v>1.0434050652407536</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14">
         <f>STDEV(cec2_cac_6)</f>
         <v>2.3182605367655658</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14">
         <f>STDEV(cec2_cac_8)</f>
         <v>1.3029279335476156</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14">
         <f>STDEV(cec2_cac_10)</f>
         <v>2.3332282730411906</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14">
         <f>STDEV(cec2_cac_12)</f>
         <v>1.627681941293126</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14">
         <f>STDEV(cec2_cac_24)</f>
         <v>1.6425480340208582</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14">
         <f>STDEV(cec2_cac_36)</f>
         <v>0.95164808857636907</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="6">
         <f>STDEV(cec2_cac_48)</f>
         <v>1.3462538441519443</v>
       </c>
@@ -1511,21 +1510,21 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="28"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1543,50 +1542,50 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="21">
         <f>AVERAGE(cec2_mal_0)</f>
         <v>-17.993058387169107</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16">
         <f>AVERAGE(cec2_mal_2)</f>
         <v>-18.205227605727146</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16">
         <f>AVERAGE(cec2_mal_4)</f>
         <v>-16.944406414543117</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16">
         <f>AVERAGE(cec2_mal_6)</f>
         <v>-14.869803248936712</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16">
         <f>AVERAGE(cec2_mal_8)</f>
         <v>-15.98253080361145</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16">
         <f>AVERAGE(cec2_mal_10)</f>
         <v>-15.123252778757362</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16">
         <f>AVERAGE(cec2_mal_12)</f>
         <v>-17.158673939036039</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16">
         <f>AVERAGE(cec2_mal_24)</f>
         <v>-19.747524374471254</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16">
         <f>AVERAGE(cec2_mal_36)</f>
         <v>-18.770062572888826</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="6">
         <f>AVERAGE(cec2_mal_48)</f>
         <v>-20.108100289550208</v>
       </c>
@@ -1607,48 +1606,48 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="22" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="20">
         <f>J16+21</f>
         <v>3.006941612830893</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <f t="shared" ref="K17:S17" si="3">K16+21</f>
         <v>2.7947723942728544</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="11">
         <f t="shared" si="3"/>
         <v>4.055593585456883</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="11">
         <f t="shared" si="3"/>
         <v>6.1301967510632878</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="11">
         <f t="shared" si="3"/>
         <v>5.01746919638855</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="11">
         <f t="shared" si="3"/>
         <v>5.8767472212426384</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="11">
         <f t="shared" si="3"/>
         <v>3.8413260609639615</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="11">
         <f t="shared" si="3"/>
         <v>1.2524756255287457</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="11">
         <f t="shared" si="3"/>
         <v>2.2299374271111745</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <f t="shared" si="3"/>
         <v>0.89189971044979188</v>
       </c>
@@ -1669,48 +1668,48 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="21">
         <f>STDEV(cec2_mal_0)</f>
         <v>2.2314621383643352</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18">
         <f>STDEV(cec2_mal_2)</f>
         <v>1.9629994509355513</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18">
         <f>STDEV(cec2_mal_4)</f>
         <v>2.153931999430343</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18">
         <f>STDEV(cec2_mal_6)</f>
         <v>2.0621719513977919</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18">
         <f>STDEV(cec2_mal_8)</f>
         <v>2.1804093944659941</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18">
         <f>STDEV(cec2_mal_10)</f>
         <v>1.9452109226481131</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18">
         <f>STDEV(cec2_mal_12)</f>
         <v>1.516018559235059</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18">
         <f>STDEV(cec2_mal_24)</f>
         <v>2.2245058095713772</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18">
         <f>STDEV(cec2_mal_36)</f>
         <v>1.5136384131273402</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <f>STDEV(cec2_mal_48)</f>
         <v>1.833705728892399</v>
       </c>
@@ -1731,21 +1730,21 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1763,13 +1762,13 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="21" t="s">
+      <c r="G20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="1">
@@ -1829,48 +1828,48 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="22" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="20">
         <f>J20+16</f>
         <v>7.1487903340286127</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="11">
         <f t="shared" ref="K21:S21" si="4">K20+16</f>
         <v>7.2406085375839702</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="11">
         <f t="shared" si="4"/>
         <v>7.7560440113689957</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="11">
         <f t="shared" si="4"/>
         <v>7.2113428447016261</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="11">
         <f t="shared" si="4"/>
         <v>7.0166627201743168</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="11">
         <f t="shared" si="4"/>
         <v>6.2248327127010423</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="11">
         <f t="shared" si="4"/>
         <v>5.2659152043910602</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="11">
         <f t="shared" si="4"/>
         <v>3.8520041845932216</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="11">
         <f t="shared" si="4"/>
         <v>3.4131102873621391</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="5">
         <f t="shared" si="4"/>
         <v>1.8831742993304417</v>
       </c>
@@ -1891,48 +1890,48 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="23" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="21">
         <f>STDEV(def2_cac_0)</f>
         <v>1.8989782297738098</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22">
         <f>STDEV(def2_cac_2)</f>
         <v>1.440560319394304</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22">
         <f>STDEV(def2_cac_4)</f>
         <v>1.5882532528978184</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22">
         <f>STDEV(def2_cac_6)</f>
         <v>1.5570771835517201</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22">
         <f>STDEV(def2_cac_8)</f>
         <v>1.1364134692478016</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22">
         <f>STDEV(def2_cac_10)</f>
         <v>1.3755476456850604</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22">
         <f>STDEV(def2_cac_12)</f>
         <v>1.5505260660441931</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22">
         <f>STDEV(def2_cac_24)</f>
         <v>0.94978197339398562</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22">
         <f>STDEV(def2_cac_36)</f>
         <v>0.76464865464978182</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="6">
         <f>STDEV(def2_cac_48)</f>
         <v>1.7995537892326314</v>
       </c>
@@ -1953,21 +1952,21 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="19"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1985,50 +1984,50 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="23" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="21">
         <f>AVERAGE(def2_mal_0)</f>
         <v>-14.533420185158228</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24">
         <f>AVERAGE(def2_mal_2)</f>
         <v>-7.8778919945106001</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24">
         <f>AVERAGE(def2_mal_4)</f>
         <v>-9.2995715879813581</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24">
         <f>AVERAGE(def2_mal_6)</f>
         <v>-7.6852084608699869</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24">
         <f>AVERAGE(def2_mal_8)</f>
         <v>-8.977021103260574</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24">
         <f>AVERAGE(def2_mal_10)</f>
         <v>-9.0350049986088017</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24">
         <f>AVERAGE(def2_mal_12)</f>
         <v>-11.834549916349221</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24">
         <f>AVERAGE(def2_mal_24)</f>
         <v>-13.119349003490953</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24">
         <f>AVERAGE(def2_mal_36)</f>
         <v>-14.059249272814286</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="6">
         <f>AVERAGE(def2_mal_48)</f>
         <v>-15.804107252206904</v>
       </c>
@@ -2049,48 +2048,48 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="22" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="20">
         <f>J24+16</f>
         <v>1.4665798148417721</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="11">
         <f t="shared" ref="K25:S25" si="5">K24+16</f>
         <v>8.1221080054893999</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="11">
         <f t="shared" si="5"/>
         <v>6.7004284120186419</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="11">
         <f t="shared" si="5"/>
         <v>8.3147915391300131</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="11">
         <f t="shared" si="5"/>
         <v>7.022978896739426</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="11">
         <f t="shared" si="5"/>
         <v>6.9649950013911983</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="11">
         <f t="shared" si="5"/>
         <v>4.1654500836507786</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="11">
         <f t="shared" si="5"/>
         <v>2.880650996509047</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="11">
         <f t="shared" si="5"/>
         <v>1.9407507271857138</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="5">
         <f t="shared" si="5"/>
         <v>0.19589274779309562</v>
       </c>
@@ -2111,48 +2110,48 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="23" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="21">
         <f>STDEV(def2_mal_0)</f>
         <v>1.2460537661092228</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26">
         <f>STDEV(def2_mal_2)</f>
         <v>1.1573076079260143</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26">
         <f>STDEV(def2_mal_4)</f>
         <v>1.8152332046759048</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26">
         <f>STDEV(def2_mal_6)</f>
         <v>1.4360305763574421</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26">
         <f>STDEV(def2_mal_8)</f>
         <v>1.9997554622842084</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26">
         <f>STDEV(def2_mal_10)</f>
         <v>1.327452307478354</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26">
         <f>STDEV(def2_mal_12)</f>
         <v>1.985565684209891</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26">
         <f>STDEV(def2_mal_24)</f>
         <v>1.2500281163737892</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26">
         <f>STDEV(def2_mal_36)</f>
         <v>1.7955576067404111</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="6">
         <f>STDEV(def2_mal_48)</f>
         <v>0.86964812280155401</v>
       </c>
@@ -2173,21 +2172,13 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="23" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="8"/>
+      <c r="J27" s="21"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2205,13 +2196,13 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="21" t="s">
+      <c r="G28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="1">
@@ -2271,48 +2262,48 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="22" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="20">
         <f>J28+22</f>
         <v>8.3141757650482173</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="11">
         <f t="shared" ref="K29:S29" si="6">K28+22</f>
         <v>7.9036411046303954</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="11">
         <f t="shared" si="6"/>
         <v>8.2779405414551981</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="11">
         <f t="shared" si="6"/>
         <v>7.2684335354853218</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="11">
         <f t="shared" si="6"/>
         <v>7.9658658906825561</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="11">
         <f t="shared" si="6"/>
         <v>6.5893356250088377</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="11">
         <f t="shared" si="6"/>
         <v>6.438512923921806</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="11">
         <f t="shared" si="6"/>
         <v>5.1786325270195306</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="11">
         <f t="shared" si="6"/>
         <v>5.4145548650874282</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="5">
         <f t="shared" si="6"/>
         <v>4.3995739339378659</v>
       </c>
@@ -2333,48 +2324,48 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="23" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="21">
         <f>STDEV(def3_cac_0)</f>
         <v>1.1690715144603421</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30">
         <f>STDEV(def3_cac_2)</f>
         <v>1.5013927830695128</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30">
         <f>STDEV(def3_cac_4)</f>
         <v>1.2798427236407151</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30">
         <f>STDEV(def3_cac_6)</f>
         <v>1.0134617581833045</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30">
         <f>STDEV(def3_cac_8)</f>
         <v>1.4929195208238906</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30">
         <f>STDEV(def3_cac_10)</f>
         <v>2.0754793393229134</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30">
         <f>STDEV(def3_cac_12)</f>
         <v>1.8859728216791491</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30">
         <f>STDEV(def3_cac_24)</f>
         <v>0.99423068089537348</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30">
         <f>STDEV(def3_cac_36)</f>
         <v>0.91474877718073133</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="6">
         <f>STDEV(def3_cac_48)</f>
         <v>1.6710257196165246</v>
       </c>
@@ -2395,21 +2386,51 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="28"/>
+      <c r="J31" s="22">
+        <f>COUNT(def3_cac_0)</f>
+        <v>8</v>
+      </c>
+      <c r="K31" s="18">
+        <f>COUNT(def3_cac_2)</f>
+        <v>7</v>
+      </c>
+      <c r="L31" s="18">
+        <f>COUNT(def3_cac_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M31" s="18">
+        <f>COUNT(def3_cac_6)</f>
+        <v>8</v>
+      </c>
+      <c r="N31" s="18">
+        <f>COUNT(def3_cac_8)</f>
+        <v>8</v>
+      </c>
+      <c r="O31" s="18">
+        <f>COUNT(def3_cac_10)</f>
+        <v>8</v>
+      </c>
+      <c r="P31" s="18">
+        <f>COUNT(def3_cac_12)</f>
+        <v>8</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>COUNT(def3_cac_24)</f>
+        <v>8</v>
+      </c>
+      <c r="R31" s="18">
+        <f>COUNT(def3_cac_36)</f>
+        <v>8</v>
+      </c>
+      <c r="S31" s="19">
+        <f>COUNT(def3_cac_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2427,50 +2448,50 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="23" t="s">
+      <c r="G32" s="25"/>
+      <c r="H32" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="21">
         <f>AVERAGE(def3_mal_0)</f>
         <v>-17.094278299423483</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32">
         <f>AVERAGE(def3_mal_2)</f>
         <v>-13.431707016862779</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32">
         <f>AVERAGE(def3_mal_4)</f>
         <v>-15.816649764537782</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32">
         <f>AVERAGE(def3_mal_6)</f>
         <v>-13.185742742726788</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32">
         <f>AVERAGE(def3_mal_8)</f>
         <v>-16.445625285955543</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32">
         <f>AVERAGE(def3_mal_10)</f>
         <v>-15.647626991050522</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32">
         <f>AVERAGE(def3_mal_12)</f>
         <v>-17.909751078370896</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32">
         <f>AVERAGE(def3_mal_24)</f>
         <v>-19.061430195616104</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32">
         <f>AVERAGE(def3_mal_36)</f>
         <v>-19.521135463995037</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="6">
         <f>AVERAGE(def3_mal_48)</f>
         <v>-21.10458524028363</v>
       </c>
@@ -2491,48 +2512,48 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="22" t="s">
+      <c r="G33" s="25"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="20">
         <f>J32+22</f>
         <v>4.9057217005765175</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="11">
         <f t="shared" ref="K33:S33" si="7">K32+22</f>
         <v>8.568292983137221</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="11">
         <f t="shared" si="7"/>
         <v>6.1833502354622176</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="11">
         <f t="shared" si="7"/>
         <v>8.8142572572732121</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="11">
         <f t="shared" si="7"/>
         <v>5.5543747140444566</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="11">
         <f t="shared" si="7"/>
         <v>6.3523730089494777</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="11">
         <f t="shared" si="7"/>
         <v>4.0902489216291045</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="11">
         <f t="shared" si="7"/>
         <v>2.9385698043838957</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="11">
         <f t="shared" si="7"/>
         <v>2.4788645360049628</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="5">
         <f t="shared" si="7"/>
         <v>0.89541475971637041</v>
       </c>
@@ -2553,48 +2574,48 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="23" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="21">
         <f>STDEV(def3_mal_0)</f>
         <v>1.3799844742096856</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34">
         <f>STDEV(def3_mal_2)</f>
         <v>1.9248338254044786</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34">
         <f>STDEV(def3_mal_4)</f>
         <v>1.5809311860300477</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34">
         <f>STDEV(def3_mal_6)</f>
         <v>1.2983651583088001</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34">
         <f>STDEV(def3_mal_8)</f>
         <v>1.8968829751934309</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34">
         <f>STDEV(def3_mal_10)</f>
         <v>2.1076330697338732</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34">
         <f>STDEV(def3_mal_12)</f>
         <v>1.9927082207562297</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34">
         <f>STDEV(def3_mal_24)</f>
         <v>1.1398570118303801</v>
       </c>
-      <c r="R34" s="15">
+      <c r="R34">
         <f>STDEV(def3_mal_36)</f>
         <v>1.9754385075369869</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="6">
         <f>STDEV(def3_mal_48)</f>
         <v>1.1462666622476685</v>
       </c>
@@ -2615,21 +2636,51 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="24" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="11"/>
+      <c r="J35" s="23">
+        <f>COUNT(def3_mal_0)</f>
+        <v>8</v>
+      </c>
+      <c r="K35" s="7">
+        <f>COUNT(def3_mal_2)</f>
+        <v>8</v>
+      </c>
+      <c r="L35" s="7">
+        <f>COUNT(def3_mal_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M35" s="7">
+        <f>COUNT(def3_mal_6)</f>
+        <v>8</v>
+      </c>
+      <c r="N35" s="7">
+        <f>COUNT(def3_mal_8)</f>
+        <v>8</v>
+      </c>
+      <c r="O35" s="7">
+        <f>COUNT(def3_mal_10)</f>
+        <v>8</v>
+      </c>
+      <c r="P35" s="7">
+        <f>COUNT(def3_mal_12)</f>
+        <v>7</v>
+      </c>
+      <c r="Q35" s="7">
+        <f>COUNT(def3_mal_24)</f>
+        <v>8</v>
+      </c>
+      <c r="R35" s="7">
+        <f>COUNT(def3_mal_36)</f>
+        <v>8</v>
+      </c>
+      <c r="S35" s="8">
+        <f>COUNT(def3_mal_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -12800,18 +12851,18 @@
   </sheetData>
   <autoFilter ref="A1:E791" xr:uid="{7FE42B9A-A392-49C6-A5AC-AF7C2A16DDF5}"/>
   <mergeCells count="12">
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H19"/>
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="G28:G35"/>
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H32:H35"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
